--- a/database/merise/src/exercice5_airport/doc/data_dictionary.xlsx
+++ b/database/merise/src/exercice5_airport/doc/data_dictionary.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\base_de_donnee\merise\exercice5_airport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\database\merise\src\exercice5_airport\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDEAF30-59AE-46B5-9D60-7BDC74164020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D5590D-0CB3-4F21-9837-92737AD9B9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk80717078" localSheetId="0">Feuil1!$A$9</definedName>
-    <definedName name="_Hlk80717162" localSheetId="0">Feuil1!$A$14</definedName>
-    <definedName name="_Hlk80717367" localSheetId="0">Feuil1!$A$22</definedName>
-    <definedName name="_Hlk80717498" localSheetId="0">Feuil1!$A$30</definedName>
-    <definedName name="_Hlk80717510" localSheetId="0">Feuil1!$A$31</definedName>
+    <definedName name="_Hlk80717078" localSheetId="0">Feuil1!#REF!</definedName>
+    <definedName name="_Hlk80717162" localSheetId="0">Feuil1!$A$16</definedName>
+    <definedName name="_Hlk80717367" localSheetId="0">Feuil1!$A$26</definedName>
+    <definedName name="_Hlk80717498" localSheetId="0">Feuil1!$A$40</definedName>
+    <definedName name="_Hlk80717510" localSheetId="0">Feuil1!$A$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>Mnémonique</t>
   </si>
@@ -111,32 +111,6 @@
     <t>Nom du constructeur de l’avion.</t>
   </si>
   <si>
-    <r>
-      <t>plane_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>engine_power</t>
-    </r>
-  </si>
-  <si>
     <t>Puissance du moteur de l’avion.</t>
   </si>
   <si>
@@ -155,33 +129,18 @@
     <t>Identifiant du propriétaire.</t>
   </si>
   <si>
-    <t>owner_type</t>
-  </si>
-  <si>
-    <t>Type de propriétaire.</t>
-  </si>
-  <si>
     <t>owner_lastname</t>
   </si>
   <si>
     <t>Nom du propriétaire.</t>
   </si>
   <si>
-    <t>owner_firdtname</t>
-  </si>
-  <si>
     <t>Prénom du propriétaire.</t>
   </si>
   <si>
     <t>Facultatif</t>
   </si>
   <si>
-    <t>owner_address</t>
-  </si>
-  <si>
-    <t>Adresse du propriétaire.</t>
-  </si>
-  <si>
     <t>owner_phone_number</t>
   </si>
   <si>
@@ -194,12 +153,6 @@
     <t>Identification du mécanicien dans le programme.</t>
   </si>
   <si>
-    <t>mechanic_role</t>
-  </si>
-  <si>
-    <t>Rôle que jouera le mécanicien dans l’intervention.</t>
-  </si>
-  <si>
     <t>mechanic_firstname</t>
   </si>
   <si>
@@ -212,12 +165,6 @@
     <t>Nom du mécanicien.</t>
   </si>
   <si>
-    <t>mechanic_address</t>
-  </si>
-  <si>
-    <t>Adresse du mécanicien.</t>
-  </si>
-  <si>
     <t>mechanic_phone_number</t>
   </si>
   <si>
@@ -281,45 +228,103 @@
     <t>Numéro de tel du pilote.</t>
   </si>
   <si>
-    <t>pilot_licence_number</t>
-  </si>
-  <si>
     <t>Numéro de licence du pilote.</t>
   </si>
   <si>
-    <r>
-      <t>pilot_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>number_of_flights</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre de vol sur un appareil précis par pilote.</t>
-  </si>
-  <si>
-    <t>pilot_hability</t>
-  </si>
-  <si>
-    <t>Type d’avion que le pilote est habilité a piloté.</t>
+    <t>plane_ engine_power</t>
+  </si>
+  <si>
+    <t>owner_firstname</t>
+  </si>
+  <si>
+    <t>owner_street</t>
+  </si>
+  <si>
+    <t>owner_nb_street</t>
+  </si>
+  <si>
+    <t>Numéro de rue du propriétaire.</t>
+  </si>
+  <si>
+    <t>owner_postal_code</t>
+  </si>
+  <si>
+    <t>Code postal du propriétaire.</t>
+  </si>
+  <si>
+    <t>owner_city</t>
+  </si>
+  <si>
+    <t>Ville du propriétaire</t>
+  </si>
+  <si>
+    <t>mechanic_nb_street</t>
+  </si>
+  <si>
+    <t>Numéro de rue du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_street</t>
+  </si>
+  <si>
+    <t>Nom de rue du propriétaire.</t>
+  </si>
+  <si>
+    <t>Nom de rue du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_postal_code</t>
+  </si>
+  <si>
+    <t>Code postal du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_city</t>
+  </si>
+  <si>
+    <t>Ville du mécanicien.</t>
+  </si>
+  <si>
+    <t>pilot_nb_street</t>
+  </si>
+  <si>
+    <t>pilot_street</t>
+  </si>
+  <si>
+    <t>pilot_postal_code</t>
+  </si>
+  <si>
+    <t>pilot_city</t>
+  </si>
+  <si>
+    <t>Numéro de rue du pilote.</t>
+  </si>
+  <si>
+    <t>Nom de rue du pilote.</t>
+  </si>
+  <si>
+    <t>Code postal du pilote.</t>
+  </si>
+  <si>
+    <t>Ville du pilote.</t>
+  </si>
+  <si>
+    <t>licence_id</t>
+  </si>
+  <si>
+    <t>licence_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> number_of_flights</t>
+  </si>
+  <si>
+    <t>licence_plane_hability</t>
+  </si>
+  <si>
+    <t>Nombre de vol sur un appareil.</t>
+  </si>
+  <si>
+    <t>Type d’avion que le pilote est habilité à piloté.</t>
   </si>
 </sst>
 </file>
@@ -365,15 +370,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,13 +391,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2D2D2"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,7 +498,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,7 +507,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,7 +525,73 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,27 +919,27 @@
       <c r="D2" s="5">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -854,457 +956,610 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>32</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="5">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11">
+        <v>255</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11">
+        <v>64</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="16">
+        <v>11</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="B17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="16">
+        <v>48</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16">
+        <v>48</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="16">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16">
+        <v>255</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="16">
+        <v>11</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="16">
+        <v>64</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="16">
+        <v>11</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="16">
+        <v>32</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="21">
+        <v>11</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D26" s="21">
+        <v>255</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="27">
+        <v>11</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D30" s="27">
         <v>48</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="E30" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D31" s="27">
         <v>48</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="E31" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="27">
+        <v>11</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="27">
+        <v>255</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="27">
+        <v>11</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="27">
+        <v>64</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="27">
+        <v>11</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="32">
+        <v>11</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="32">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8">
-        <v>255</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="E38" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8">
-        <v>48</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8">
-        <v>48</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8">
-        <v>255</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="D39" s="32">
         <v>32</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="8">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8">
-        <v>255</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="8">
-        <v>11</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8">
-        <v>48</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="8">
-        <v>48</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="8">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8">
-        <v>32</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="8">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="8">
-        <v>32</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="E39" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="32">
+        <v>11</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>12</v>
       </c>
     </row>

--- a/database/merise/src/exercice5_airport/doc/data_dictionary.xlsx
+++ b/database/merise/src/exercice5_airport/doc/data_dictionary.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\database\merise\src\exercice5_airport\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D5590D-0CB3-4F21-9837-92737AD9B9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10BCA4B-C965-4DD8-A829-DF39C54F8249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="airport" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk80717078" localSheetId="0">Feuil1!#REF!</definedName>
-    <definedName name="_Hlk80717162" localSheetId="0">Feuil1!$A$16</definedName>
-    <definedName name="_Hlk80717367" localSheetId="0">Feuil1!$A$26</definedName>
-    <definedName name="_Hlk80717498" localSheetId="0">Feuil1!$A$40</definedName>
-    <definedName name="_Hlk80717510" localSheetId="0">Feuil1!$A$39</definedName>
+    <definedName name="_Hlk80717078" localSheetId="0">airport!#REF!</definedName>
+    <definedName name="_Hlk80717162" localSheetId="0">airport!$A$18</definedName>
+    <definedName name="_Hlk80717367" localSheetId="0">airport!$A$29</definedName>
+    <definedName name="_Hlk80717498" localSheetId="0">airport!$A$42</definedName>
+    <definedName name="_Hlk80717510" localSheetId="0">airport!$A$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
   <si>
     <t>Mnémonique</t>
   </si>
@@ -49,289 +49,317 @@
     <t>Contrainte</t>
   </si>
   <si>
-    <r>
-      <t>plane_</t>
-    </r>
+    <t>Immatriculation de l’avion.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Identifiant</t>
+  </si>
+  <si>
+    <t>plane_purchase_date</t>
+  </si>
+  <si>
+    <t>Date d’achat de l’avion.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>Nom de l’avion.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Nom du constructeur de l’avion.</t>
+  </si>
+  <si>
+    <t>Puissance du moteur de l’avion.</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>plane_place_number</t>
+  </si>
+  <si>
+    <t>Nombre de place dans l’avion</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>Identifiant du propriétaire.</t>
+  </si>
+  <si>
+    <t>owner_lastname</t>
+  </si>
+  <si>
+    <t>Nom du propriétaire.</t>
+  </si>
+  <si>
+    <t>Prénom du propriétaire.</t>
+  </si>
+  <si>
+    <t>Facultatif</t>
+  </si>
+  <si>
+    <t>owner_phone_number</t>
+  </si>
+  <si>
+    <t>Numéro de tel du propriétaire.</t>
+  </si>
+  <si>
+    <t>mechanic_id</t>
+  </si>
+  <si>
+    <t>Identification du mécanicien dans le programme.</t>
+  </si>
+  <si>
+    <t>mechanic_firstname</t>
+  </si>
+  <si>
+    <t>Prénom du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_lastname</t>
+  </si>
+  <si>
+    <t>Nom du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_phone_number</t>
+  </si>
+  <si>
+    <t>Numéro de tel du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_hability</t>
+  </si>
+  <si>
+    <t>Type d’avion que le mécanicien est habilité à réparer.</t>
+  </si>
+  <si>
+    <t>Intervention_id</t>
+  </si>
+  <si>
+    <t>Identification de l’intervention dans le programme.</t>
+  </si>
+  <si>
+    <t>intervention_object</t>
+  </si>
+  <si>
+    <t>Objet de l’intervention.</t>
+  </si>
+  <si>
+    <t>intervention_date</t>
+  </si>
+  <si>
+    <t>Date de l’intervention.</t>
+  </si>
+  <si>
+    <t>intervention_time</t>
+  </si>
+  <si>
+    <t>Durée de l’intervention.</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>pilot_id</t>
+  </si>
+  <si>
+    <t>Identifiant du pilote dans le programme.</t>
+  </si>
+  <si>
+    <t>pilot_firstname</t>
+  </si>
+  <si>
+    <t>Prénom du pilote.</t>
+  </si>
+  <si>
+    <t>pilot_lastname</t>
+  </si>
+  <si>
+    <t>Nom du pilote.</t>
+  </si>
+  <si>
+    <t>pilot_phone_number</t>
+  </si>
+  <si>
+    <t>Numéro de tel du pilote.</t>
+  </si>
+  <si>
+    <t>Numéro de licence du pilote.</t>
+  </si>
+  <si>
+    <t>owner_firstname</t>
+  </si>
+  <si>
+    <t>owner_street</t>
+  </si>
+  <si>
+    <t>owner_nb_street</t>
+  </si>
+  <si>
+    <t>Numéro de rue du propriétaire.</t>
+  </si>
+  <si>
+    <t>owner_postal_code</t>
+  </si>
+  <si>
+    <t>Code postal du propriétaire.</t>
+  </si>
+  <si>
+    <t>owner_city</t>
+  </si>
+  <si>
+    <t>Ville du propriétaire</t>
+  </si>
+  <si>
+    <t>mechanic_nb_street</t>
+  </si>
+  <si>
+    <t>Numéro de rue du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_street</t>
+  </si>
+  <si>
+    <t>Nom de rue du propriétaire.</t>
+  </si>
+  <si>
+    <t>Nom de rue du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_postal_code</t>
+  </si>
+  <si>
+    <t>Code postal du mécanicien.</t>
+  </si>
+  <si>
+    <t>mechanic_city</t>
+  </si>
+  <si>
+    <t>Ville du mécanicien.</t>
+  </si>
+  <si>
+    <t>pilot_nb_street</t>
+  </si>
+  <si>
+    <t>pilot_street</t>
+  </si>
+  <si>
+    <t>pilot_postal_code</t>
+  </si>
+  <si>
+    <t>pilot_city</t>
+  </si>
+  <si>
+    <t>Numéro de rue du pilote.</t>
+  </si>
+  <si>
+    <t>Nom de rue du pilote.</t>
+  </si>
+  <si>
+    <t>Code postal du pilote.</t>
+  </si>
+  <si>
+    <t>Ville du pilote.</t>
+  </si>
+  <si>
+    <t>licence_number</t>
+  </si>
+  <si>
+    <t>licence_plane_hability</t>
+  </si>
+  <si>
+    <t>Nombre de vol sur un appareil.</t>
+  </si>
+  <si>
+    <t>Type d’avion que le pilote est habilité à piloté.</t>
+  </si>
+  <si>
+    <t>owner_type</t>
+  </si>
+  <si>
+    <t>Type de propriétaire (Société, Particulier)</t>
+  </si>
+  <si>
+    <t>owner_society_name</t>
+  </si>
+  <si>
+    <t>Nom de la société.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>mechanic</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>registration_number</t>
+      <t>_</t>
     </r>
-  </si>
-  <si>
-    <t>Immatriculation de l’avion.</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Identifiant</t>
-  </si>
-  <si>
-    <t>plane_purchase_date</t>
-  </si>
-  <si>
-    <t>Date d’achat de l’avion.</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Obligatoire</t>
-  </si>
-  <si>
-    <t>plane _name</t>
-  </si>
-  <si>
-    <t>Nom de l’avion.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>plane _constructor_name</t>
-  </si>
-  <si>
-    <t>Nom du constructeur de l’avion.</t>
-  </si>
-  <si>
-    <t>Puissance du moteur de l’avion.</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>plane_place_number</t>
-  </si>
-  <si>
-    <t>Nombre de place dans l’avion</t>
-  </si>
-  <si>
-    <t>owner_id</t>
-  </si>
-  <si>
-    <t>Identifiant du propriétaire.</t>
-  </si>
-  <si>
-    <t>owner_lastname</t>
-  </si>
-  <si>
-    <t>Nom du propriétaire.</t>
-  </si>
-  <si>
-    <t>Prénom du propriétaire.</t>
-  </si>
-  <si>
-    <t>Facultatif</t>
-  </si>
-  <si>
-    <t>owner_phone_number</t>
-  </si>
-  <si>
-    <t>Numéro de tel du propriétaire.</t>
-  </si>
-  <si>
-    <t>mechanic_id</t>
-  </si>
-  <si>
-    <t>Identification du mécanicien dans le programme.</t>
-  </si>
-  <si>
-    <t>mechanic_firstname</t>
-  </si>
-  <si>
-    <t>Prénom du mécanicien.</t>
-  </si>
-  <si>
-    <t>mechanic_lastname</t>
-  </si>
-  <si>
-    <t>Nom du mécanicien.</t>
-  </si>
-  <si>
-    <t>mechanic_phone_number</t>
-  </si>
-  <si>
-    <t>Numéro de tel du mécanicien.</t>
-  </si>
-  <si>
-    <t>mechanic_hability</t>
-  </si>
-  <si>
-    <t>Type d’avion que le mécanicien est habilité à réparer.</t>
-  </si>
-  <si>
-    <t>Intervention_id</t>
-  </si>
-  <si>
-    <t>Identification de l’intervention dans le programme.</t>
-  </si>
-  <si>
-    <t>intervention_object</t>
-  </si>
-  <si>
-    <t>Objet de l’intervention.</t>
-  </si>
-  <si>
-    <t>intervention_date</t>
-  </si>
-  <si>
-    <t>Date de l’intervention.</t>
-  </si>
-  <si>
-    <t>intervention_time</t>
-  </si>
-  <si>
-    <t>Durée de l’intervention.</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>pilot_id</t>
-  </si>
-  <si>
-    <t>Identifiant du pilote dans le programme.</t>
-  </si>
-  <si>
-    <t>pilot_firstname</t>
-  </si>
-  <si>
-    <t>Prénom du pilote.</t>
-  </si>
-  <si>
-    <t>pilot_lastname</t>
-  </si>
-  <si>
-    <t>Nom du pilote.</t>
-  </si>
-  <si>
-    <t>pilot_phone_number</t>
-  </si>
-  <si>
-    <t>Numéro de tel du pilote.</t>
-  </si>
-  <si>
-    <t>Numéro de licence du pilote.</t>
-  </si>
-  <si>
-    <t>plane_ engine_power</t>
-  </si>
-  <si>
-    <t>owner_firstname</t>
-  </si>
-  <si>
-    <t>owner_street</t>
-  </si>
-  <si>
-    <t>owner_nb_street</t>
-  </si>
-  <si>
-    <t>Numéro de rue du propriétaire.</t>
-  </si>
-  <si>
-    <t>owner_postal_code</t>
-  </si>
-  <si>
-    <t>Code postal du propriétaire.</t>
-  </si>
-  <si>
-    <t>owner_city</t>
-  </si>
-  <si>
-    <t>Ville du propriétaire</t>
-  </si>
-  <si>
-    <t>mechanic_nb_street</t>
-  </si>
-  <si>
-    <t>Numéro de rue du mécanicien.</t>
-  </si>
-  <si>
-    <t>mechanic_street</t>
-  </si>
-  <si>
-    <t>Nom de rue du propriétaire.</t>
-  </si>
-  <si>
-    <t>Nom de rue du mécanicien.</t>
-  </si>
-  <si>
-    <t>mechanic_postal_code</t>
-  </si>
-  <si>
-    <t>Code postal du mécanicien.</t>
-  </si>
-  <si>
-    <t>mechanic_city</t>
-  </si>
-  <si>
-    <t>Ville du mécanicien.</t>
-  </si>
-  <si>
-    <t>pilot_nb_street</t>
-  </si>
-  <si>
-    <t>pilot_street</t>
-  </si>
-  <si>
-    <t>pilot_postal_code</t>
-  </si>
-  <si>
-    <t>pilot_city</t>
-  </si>
-  <si>
-    <t>Numéro de rue du pilote.</t>
-  </si>
-  <si>
-    <t>Nom de rue du pilote.</t>
-  </si>
-  <si>
-    <t>Code postal du pilote.</t>
-  </si>
-  <si>
-    <t>Ville du pilote.</t>
-  </si>
-  <si>
-    <t>licence_id</t>
-  </si>
-  <si>
-    <t>licence_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> number_of_flights</t>
-  </si>
-  <si>
-    <t>licence_plane_hability</t>
-  </si>
-  <si>
-    <t>Nombre de vol sur un appareil.</t>
-  </si>
-  <si>
-    <t>Type d’avion que le pilote est habilité à piloté.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>role</t>
+    </r>
+  </si>
+  <si>
+    <t>Rôle que le mécanicien va jouer dans la réparation.</t>
+  </si>
+  <si>
+    <t>number_of_flights</t>
+  </si>
+  <si>
+    <t>plane_name</t>
+  </si>
+  <si>
+    <t>plane_constructor_name</t>
+  </si>
+  <si>
+    <t>plane_engine_power</t>
+  </si>
+  <si>
+    <t>Obligatoire, YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Obligatoire, YYYY-MM-DD, HH-MM</t>
+  </si>
+  <si>
+    <t>plane_registration_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +398,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -490,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -592,6 +627,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -874,19 +918,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -908,659 +952,693 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="5">
         <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5">
         <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="11">
-        <v>11</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11">
-        <v>48</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="11">
         <v>48</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
+      <c r="E10" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" s="11">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="11">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="11">
+        <v>64</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="C18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="16">
+        <v>11</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="16">
-        <v>11</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="16">
-        <v>48</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="16">
-        <v>48</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>67</v>
+      <c r="A19" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D19" s="16">
-        <v>11</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20" s="16">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D21" s="16">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D22" s="16">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="16">
+        <v>255</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="16">
+        <v>11</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="16">
+        <v>64</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="16">
+        <v>11</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="16">
+        <v>32</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="B28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="21">
+        <v>11</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="16">
-        <v>11</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="15" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="16">
-        <v>32</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="C29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="21">
+        <v>255</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="B30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="27">
+        <v>11</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>7</v>
-      </c>
-      <c r="D25" s="21">
-        <v>11</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="21">
-        <v>255</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="27">
-        <v>11</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="27">
-        <v>48</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="27">
-        <v>48</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="27">
-        <v>11</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D33" s="27">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D34" s="27">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D35" s="27">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C36" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="27">
+        <v>255</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="27">
+        <v>11</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="27">
+        <v>64</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="27">
+        <v>11</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="32">
+        <v>32</v>
+      </c>
+      <c r="E40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="27">
-        <v>11</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="32">
-        <v>11</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="32">
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="32">
         <v>32</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="32">
-        <v>32</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="32">
-        <v>11</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>12</v>
+      <c r="E41" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="32">
+        <v>11</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
